--- a/Nova-SM2/NovaSM2 Motor Vars.xlsx
+++ b/Nova-SM2/NovaSM2 Motor Vars.xlsx
@@ -11,9 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>PIN</t>
   </si>
   <si>
     <t>MOTOR</t>
@@ -120,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -131,6 +134,10 @@
       <sz val="18.0"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18.0"/>
     </font>
     <font>
       <color theme="1"/>
@@ -148,6 +155,9 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="18.0"/>
+    </font>
+    <font>
       <b/>
       <sz val="18.0"/>
       <color rgb="FF45818E"/>
@@ -252,72 +262,87 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -536,24 +561,25 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.0"/>
-    <col customWidth="1" min="2" max="2" width="15.29"/>
-    <col customWidth="1" min="3" max="3" width="19.14"/>
-    <col customWidth="1" min="4" max="4" width="23.0"/>
-    <col customWidth="1" min="5" max="5" width="16.43"/>
-    <col customWidth="1" min="6" max="6" width="19.14"/>
-    <col customWidth="1" min="7" max="7" width="17.43"/>
-    <col customWidth="1" min="8" max="8" width="20.14"/>
-    <col customWidth="1" min="9" max="9" width="20.0"/>
-    <col customWidth="1" min="10" max="10" width="19.14"/>
-    <col customWidth="1" min="11" max="11" width="18.57"/>
+    <col customWidth="1" min="1" max="2" width="11.0"/>
+    <col customWidth="1" min="3" max="3" width="15.29"/>
+    <col customWidth="1" min="4" max="4" width="19.14"/>
+    <col customWidth="1" min="5" max="5" width="23.0"/>
+    <col customWidth="1" min="6" max="6" width="16.43"/>
+    <col customWidth="1" min="7" max="7" width="7.29"/>
+    <col customWidth="1" min="8" max="8" width="19.14"/>
+    <col customWidth="1" min="9" max="9" width="17.43"/>
+    <col customWidth="1" min="10" max="10" width="20.14"/>
+    <col customWidth="1" min="11" max="11" width="20.0"/>
+    <col customWidth="1" min="12" max="12" width="19.14"/>
+    <col customWidth="1" min="13" max="13" width="18.57"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -568,563 +594,624 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2"/>
+      <c r="A2" s="3"/>
       <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>1.0</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6">
-        <v>379.0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>499.0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>417.0</v>
-      </c>
-      <c r="F3" s="8">
-        <f>MINUS(D3,60)</f>
-        <v>439</v>
-      </c>
-      <c r="G3" s="9">
-        <f t="shared" ref="G3:G5" si="1">MINUS(D3,C3)</f>
+      <c r="B3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8">
+        <v>330.0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>450.0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>368.0</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11">
+        <f>MINUS(E3,60)</f>
+        <v>390</v>
+      </c>
+      <c r="I3" s="12">
+        <f t="shared" ref="I3:I5" si="1">MINUS(E3,D3)</f>
         <v>120</v>
       </c>
-      <c r="H3" s="10">
-        <f t="shared" ref="H3:H5" si="2">MINUS(E3,C3)</f>
+      <c r="J3" s="13">
+        <f t="shared" ref="J3:J5" si="2">MINUS(F3,D3)</f>
         <v>38</v>
       </c>
-      <c r="I3" s="10">
-        <f t="shared" ref="I3:I5" si="3">MINUS(E3,D3)</f>
+      <c r="K3" s="13">
+        <f t="shared" ref="K3:K5" si="3">MINUS(F3,E3)</f>
         <v>-82</v>
       </c>
-      <c r="J3" s="10">
-        <f t="shared" ref="J3:J5" si="4">MINUS(D3,F3)</f>
+      <c r="L3" s="13">
+        <f t="shared" ref="L3:L5" si="4">MINUS(E3,H3)</f>
         <v>60</v>
       </c>
-      <c r="K3" s="10">
-        <f t="shared" ref="K3:K5" si="5">MINUS(F3,C3)</f>
+      <c r="M3" s="13">
+        <f t="shared" ref="M3:M5" si="5">MINUS(H3,D3)</f>
         <v>60</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>2.0</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8">
         <v>226.0</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E4" s="8">
         <v>466.0</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4" s="9">
         <v>301.0</v>
       </c>
-      <c r="F4" s="8">
-        <f>MINUS(D4,120)</f>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11">
+        <f>MINUS(E4,120)</f>
         <v>346</v>
       </c>
-      <c r="G4" s="9">
+      <c r="I4" s="12">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="H4" s="10">
+      <c r="J4" s="13">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="I4" s="10">
+      <c r="K4" s="13">
         <f t="shared" si="3"/>
         <v>-165</v>
       </c>
-      <c r="J4" s="10">
+      <c r="L4" s="13">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="K4" s="10">
+      <c r="M4" s="13">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>3.0</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8">
         <v>322.0</v>
       </c>
-      <c r="D5" s="11">
+      <c r="E5" s="14">
         <v>548.0</v>
       </c>
-      <c r="E5" s="7">
+      <c r="F5" s="9">
         <v>435.0</v>
       </c>
-      <c r="F5" s="8">
-        <f>MINUS(D5,113)</f>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11">
+        <f>MINUS(E5,113)</f>
         <v>435</v>
       </c>
-      <c r="G5" s="9">
+      <c r="I5" s="12">
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="H5" s="10">
+      <c r="J5" s="13">
         <f t="shared" si="2"/>
         <v>113</v>
       </c>
-      <c r="I5" s="10">
+      <c r="K5" s="13">
         <f t="shared" si="3"/>
         <v>-113</v>
       </c>
-      <c r="J5" s="10">
+      <c r="L5" s="13">
         <f t="shared" si="4"/>
         <v>113</v>
       </c>
-      <c r="K5" s="10">
+      <c r="M5" s="13">
         <f t="shared" si="5"/>
         <v>113</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7">
-      <c r="A7" s="15">
+      <c r="A7" s="18">
         <v>4.0</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="17">
+      <c r="B7" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="21">
         <v>393.0</v>
       </c>
-      <c r="D7" s="17">
+      <c r="E7" s="21">
         <v>273.0</v>
       </c>
-      <c r="E7" s="18">
+      <c r="F7" s="22">
         <v>355.0</v>
       </c>
-      <c r="F7" s="19">
-        <f>SUM(D7,60)</f>
+      <c r="G7" s="10"/>
+      <c r="H7" s="23">
+        <f>SUM(E7,60)</f>
         <v>333</v>
       </c>
-      <c r="G7" s="20">
-        <f t="shared" ref="G7:G9" si="6">MINUS(C7,D7)</f>
+      <c r="I7" s="24">
+        <f t="shared" ref="I7:I9" si="6">MINUS(D7,E7)</f>
         <v>120</v>
       </c>
-      <c r="H7" s="21">
-        <f t="shared" ref="H7:H9" si="7">MINUS(E7,C7)</f>
+      <c r="J7" s="25">
+        <f t="shared" ref="J7:J9" si="7">MINUS(F7,D7)</f>
         <v>-38</v>
       </c>
-      <c r="I7" s="21">
-        <f t="shared" ref="I7:I9" si="8">MINUS(E7,D7)</f>
+      <c r="K7" s="25">
+        <f t="shared" ref="K7:K9" si="8">MINUS(F7,E7)</f>
         <v>82</v>
       </c>
-      <c r="J7" s="21">
-        <f t="shared" ref="J7:J9" si="9">MINUS(D7,F7)</f>
+      <c r="L7" s="25">
+        <f t="shared" ref="L7:L9" si="9">MINUS(E7,H7)</f>
         <v>-60</v>
       </c>
-      <c r="K7" s="21">
-        <f t="shared" ref="K7:K9" si="10">MINUS(F7,C7)</f>
+      <c r="M7" s="25">
+        <f t="shared" ref="M7:M9" si="10">MINUS(H7,D7)</f>
         <v>-60</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="15">
+      <c r="A8" s="18">
         <v>5.0</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="17">
+      <c r="B8" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="21">
         <v>497.0</v>
       </c>
-      <c r="D8" s="17">
+      <c r="E8" s="21">
         <v>257.0</v>
       </c>
-      <c r="E8" s="18">
+      <c r="F8" s="22">
         <v>422.0</v>
       </c>
-      <c r="F8" s="19">
-        <f>SUM(D8,120)</f>
+      <c r="G8" s="10"/>
+      <c r="H8" s="23">
+        <f>SUM(E8,120)</f>
         <v>377</v>
       </c>
-      <c r="G8" s="20">
+      <c r="I8" s="24">
         <f t="shared" si="6"/>
         <v>240</v>
       </c>
-      <c r="H8" s="21">
+      <c r="J8" s="25">
         <f t="shared" si="7"/>
         <v>-75</v>
       </c>
-      <c r="I8" s="21">
+      <c r="K8" s="25">
         <f t="shared" si="8"/>
         <v>165</v>
       </c>
-      <c r="J8" s="21">
+      <c r="L8" s="25">
         <f t="shared" si="9"/>
         <v>-120</v>
       </c>
-      <c r="K8" s="21">
+      <c r="M8" s="25">
         <f t="shared" si="10"/>
         <v>-120</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="15">
+      <c r="A9" s="18">
         <v>6.0</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="17">
+      <c r="B9" s="19">
+        <v>6.0</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="21">
         <v>468.0</v>
       </c>
-      <c r="D9" s="17">
+      <c r="E9" s="21">
         <v>242.0</v>
       </c>
-      <c r="E9" s="18">
+      <c r="F9" s="22">
         <v>355.0</v>
       </c>
-      <c r="F9" s="19">
-        <f>SUM(D9,113)</f>
+      <c r="G9" s="10"/>
+      <c r="H9" s="23">
+        <f>SUM(E9,113)</f>
         <v>355</v>
       </c>
-      <c r="G9" s="20">
+      <c r="I9" s="24">
         <f t="shared" si="6"/>
         <v>226</v>
       </c>
-      <c r="H9" s="21">
+      <c r="J9" s="25">
         <f t="shared" si="7"/>
         <v>-113</v>
       </c>
-      <c r="I9" s="21">
+      <c r="K9" s="25">
         <f t="shared" si="8"/>
         <v>113</v>
       </c>
-      <c r="J9" s="21">
+      <c r="L9" s="25">
         <f t="shared" si="9"/>
         <v>-113</v>
       </c>
-      <c r="K9" s="21">
+      <c r="M9" s="25">
         <f t="shared" si="10"/>
         <v>-113</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>7.0</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="8">
         <v>310.0</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="8">
         <v>430.0</v>
       </c>
-      <c r="E11" s="22">
+      <c r="F11" s="26">
         <v>348.0</v>
       </c>
-      <c r="F11" s="8">
-        <f>MINUS(D11,60)</f>
+      <c r="G11" s="27"/>
+      <c r="H11" s="11">
+        <f>MINUS(E11,60)</f>
         <v>370</v>
       </c>
-      <c r="G11" s="9">
-        <f t="shared" ref="G11:G13" si="11">MINUS(D11,C11)</f>
+      <c r="I11" s="12">
+        <f t="shared" ref="I11:I13" si="11">MINUS(E11,D11)</f>
         <v>120</v>
       </c>
-      <c r="H11" s="10">
-        <f t="shared" ref="H11:H13" si="12">MINUS(E11,C11)</f>
+      <c r="J11" s="13">
+        <f t="shared" ref="J11:J13" si="12">MINUS(F11,D11)</f>
         <v>38</v>
       </c>
-      <c r="I11" s="10">
-        <f t="shared" ref="I11:I13" si="13">MINUS(E11,D11)</f>
+      <c r="K11" s="13">
+        <f t="shared" ref="K11:K13" si="13">MINUS(F11,E11)</f>
         <v>-82</v>
       </c>
-      <c r="J11" s="10">
-        <f t="shared" ref="J11:J13" si="14">MINUS(D11,F11)</f>
+      <c r="L11" s="13">
+        <f t="shared" ref="L11:L13" si="14">MINUS(E11,H11)</f>
         <v>60</v>
       </c>
-      <c r="K11" s="10">
-        <f t="shared" ref="K11:K13" si="15">MINUS(F11,C11)</f>
+      <c r="M11" s="13">
+        <f t="shared" ref="M11:M13" si="15">MINUS(H11,D11)</f>
         <v>60</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>8.0</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="B12" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="8">
         <v>269.0</v>
       </c>
-      <c r="D12" s="6">
+      <c r="E12" s="8">
         <v>509.0</v>
       </c>
-      <c r="E12" s="7">
+      <c r="F12" s="9">
         <v>344.0</v>
       </c>
-      <c r="F12" s="8">
-        <f>MINUS(D12,120)</f>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11">
+        <f>MINUS(E12,120)</f>
         <v>389</v>
       </c>
-      <c r="G12" s="9">
+      <c r="I12" s="12">
         <f t="shared" si="11"/>
         <v>240</v>
       </c>
-      <c r="H12" s="10">
+      <c r="J12" s="13">
         <f t="shared" si="12"/>
         <v>75</v>
       </c>
-      <c r="I12" s="10">
+      <c r="K12" s="13">
         <f t="shared" si="13"/>
         <v>-165</v>
       </c>
-      <c r="J12" s="10">
+      <c r="L12" s="13">
         <f t="shared" si="14"/>
         <v>120</v>
       </c>
-      <c r="K12" s="10">
+      <c r="M12" s="13">
         <f t="shared" si="15"/>
         <v>120</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>9.0</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="B13" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="8">
         <v>283.0</v>
       </c>
-      <c r="D13" s="6">
+      <c r="E13" s="8">
         <v>509.0</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F13" s="9">
         <v>396.0</v>
       </c>
-      <c r="F13" s="8">
-        <f>MINUS(D13,113)</f>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11">
+        <f>MINUS(E13,113)</f>
         <v>396</v>
       </c>
-      <c r="G13" s="9">
+      <c r="I13" s="12">
         <f t="shared" si="11"/>
         <v>226</v>
       </c>
-      <c r="H13" s="10">
+      <c r="J13" s="13">
         <f t="shared" si="12"/>
         <v>113</v>
       </c>
-      <c r="I13" s="10">
+      <c r="K13" s="13">
         <f t="shared" si="13"/>
         <v>-113</v>
       </c>
-      <c r="J13" s="10">
+      <c r="L13" s="13">
         <f t="shared" si="14"/>
         <v>113</v>
       </c>
-      <c r="K13" s="10">
+      <c r="M13" s="13">
         <f t="shared" si="15"/>
         <v>113</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
     </row>
     <row r="15">
-      <c r="A15" s="15">
+      <c r="A15" s="18">
         <v>10.0</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="17">
+      <c r="B15" s="19">
+        <v>12.0</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="21">
         <v>402.0</v>
       </c>
-      <c r="D15" s="17">
+      <c r="E15" s="21">
         <v>282.0</v>
       </c>
-      <c r="E15" s="18">
+      <c r="F15" s="22">
         <v>364.0</v>
       </c>
-      <c r="F15" s="19">
-        <f>SUM(D15,60)</f>
+      <c r="G15" s="10"/>
+      <c r="H15" s="23">
+        <f>SUM(E15,60)</f>
         <v>342</v>
       </c>
-      <c r="G15" s="20">
-        <f t="shared" ref="G15:G17" si="16">MINUS(C15,D15)</f>
+      <c r="I15" s="24">
+        <f t="shared" ref="I15:I17" si="16">MINUS(D15,E15)</f>
         <v>120</v>
       </c>
-      <c r="H15" s="21">
-        <f t="shared" ref="H15:H17" si="17">MINUS(E15,C15)</f>
+      <c r="J15" s="25">
+        <f t="shared" ref="J15:J17" si="17">MINUS(F15,D15)</f>
         <v>-38</v>
       </c>
-      <c r="I15" s="21">
-        <f t="shared" ref="I15:I17" si="18">MINUS(E15,D15)</f>
+      <c r="K15" s="25">
+        <f t="shared" ref="K15:K17" si="18">MINUS(F15,E15)</f>
         <v>82</v>
       </c>
-      <c r="J15" s="21">
-        <f t="shared" ref="J15:J17" si="19">MINUS(D15,F15)</f>
+      <c r="L15" s="25">
+        <f t="shared" ref="L15:L17" si="19">MINUS(E15,H15)</f>
         <v>-60</v>
       </c>
-      <c r="K15" s="21">
-        <f t="shared" ref="K15:K17" si="20">MINUS(F15,C15)</f>
+      <c r="M15" s="25">
+        <f t="shared" ref="M15:M17" si="20">MINUS(H15,D15)</f>
         <v>-60</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="15">
+      <c r="A16" s="18">
         <v>11.0</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="17">
+      <c r="B16" s="19">
+        <v>13.0</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="21">
         <v>416.0</v>
       </c>
-      <c r="D16" s="17">
+      <c r="E16" s="21">
         <v>176.0</v>
       </c>
-      <c r="E16" s="18">
+      <c r="F16" s="22">
         <v>341.0</v>
       </c>
-      <c r="F16" s="19">
-        <f>SUM(D16,120)</f>
+      <c r="G16" s="10"/>
+      <c r="H16" s="23">
+        <f>SUM(E16,120)</f>
         <v>296</v>
       </c>
-      <c r="G16" s="20">
+      <c r="I16" s="24">
         <f t="shared" si="16"/>
         <v>240</v>
       </c>
-      <c r="H16" s="21">
+      <c r="J16" s="25">
         <f t="shared" si="17"/>
         <v>-75</v>
       </c>
-      <c r="I16" s="21">
+      <c r="K16" s="25">
         <f t="shared" si="18"/>
         <v>165</v>
       </c>
-      <c r="J16" s="21">
+      <c r="L16" s="25">
         <f t="shared" si="19"/>
         <v>-120</v>
       </c>
-      <c r="K16" s="21">
+      <c r="M16" s="25">
         <f t="shared" si="20"/>
         <v>-120</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="15">
+      <c r="A17" s="18">
         <v>12.0</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="17">
+      <c r="B17" s="19">
+        <v>14.0</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="21">
         <v>419.0</v>
       </c>
-      <c r="D17" s="17">
+      <c r="E17" s="21">
         <v>193.0</v>
       </c>
-      <c r="E17" s="18">
+      <c r="F17" s="22">
         <v>306.0</v>
       </c>
-      <c r="F17" s="19">
-        <f>SUM(D17,113)</f>
+      <c r="G17" s="10"/>
+      <c r="H17" s="23">
+        <f>SUM(E17,113)</f>
         <v>306</v>
       </c>
-      <c r="G17" s="20">
+      <c r="I17" s="24">
         <f t="shared" si="16"/>
         <v>226</v>
       </c>
-      <c r="H17" s="21">
+      <c r="J17" s="25">
         <f t="shared" si="17"/>
         <v>-113</v>
       </c>
-      <c r="I17" s="21">
+      <c r="K17" s="25">
         <f t="shared" si="18"/>
         <v>113</v>
       </c>
-      <c r="J17" s="21">
+      <c r="L17" s="25">
         <f t="shared" si="19"/>
         <v>-113</v>
       </c>
-      <c r="K17" s="21">
+      <c r="M17" s="25">
         <f t="shared" si="20"/>
         <v>-113</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
